--- a/src/data/a_city_template/2025/sample_votes.xlsx
+++ b/src/data/a_city_template/2025/sample_votes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gignac/Desktop/Projects/pabulib_process_data/src/data/a_city_template/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E68DD-4BCF-6240-9D9F-0B1BFCE577E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A4F80-1C98-3741-B01A-12C091CBD539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>Voter ID</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,8 +823,11 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -933,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -952,8 +958,11 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
